--- a/my_dcgo/public/app/examples/dcGO - EFO 0000540 - SCOP.xlsx
+++ b/my_dcgo/public/app/examples/dcGO - EFO 0000540 - SCOP.xlsx
@@ -280,7 +280,7 @@
         </is>
       </c>
       <c r="E4" s="65">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -303,7 +303,7 @@
         </is>
       </c>
       <c r="E5" s="65">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -318,11 +318,11 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>47266</v>
+        <v>48726</v>
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t xml:space="preserve">4-helical cytokines</t>
+          <t xml:space="preserve">Immunoglobulin</t>
         </is>
       </c>
       <c r="E6" s="65">
@@ -341,11 +341,11 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>48726</v>
+        <v>55550</v>
       </c>
       <c t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">Immunoglobulin</t>
+          <t xml:space="preserve">SH2 domain</t>
         </is>
       </c>
       <c r="E7" s="65">
@@ -364,15 +364,15 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>55550</v>
+        <v>47266</v>
       </c>
       <c t="inlineStr" r="D8">
         <is>
-          <t xml:space="preserve">SH2 domain</t>
+          <t xml:space="preserve">4-helical cytokines</t>
         </is>
       </c>
       <c r="E8" s="65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -406,15 +406,15 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>52200</v>
+        <v>46877</v>
       </c>
       <c t="inlineStr" r="D10">
         <is>
-          <t xml:space="preserve">Toll/Interleukin receptor TIR domain</t>
+          <t xml:space="preserve">Interferon regulatory factor</t>
         </is>
       </c>
       <c r="E10" s="65">
@@ -429,19 +429,19 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C11" s="65">
-        <v>57586</v>
+        <v>55551</v>
       </c>
       <c t="inlineStr" r="D11">
         <is>
-          <t xml:space="preserve">TNF receptor-like</t>
+          <t xml:space="preserve">SH2 domain</t>
         </is>
       </c>
       <c r="E11" s="65">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -452,19 +452,19 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C12" s="65">
-        <v>57587</v>
+        <v>52200</v>
       </c>
       <c t="inlineStr" r="D12">
         <is>
-          <t xml:space="preserve">TNF receptor-like</t>
+          <t xml:space="preserve">Toll/Interleukin receptor TIR domain</t>
         </is>
       </c>
       <c r="E12" s="65">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -475,19 +475,19 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C13" s="65">
-        <v>54117</v>
+        <v>52201</v>
       </c>
       <c t="inlineStr" r="D13">
         <is>
-          <t xml:space="preserve">Interleukin 8-like chemokines</t>
+          <t xml:space="preserve">Toll/Interleukin receptor TIR domain</t>
         </is>
       </c>
       <c r="E13" s="65">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -502,15 +502,15 @@
         </is>
       </c>
       <c r="C14" s="65">
-        <v>54118</v>
+        <v>57587</v>
       </c>
       <c t="inlineStr" r="D14">
         <is>
-          <t xml:space="preserve">Interleukin 8-like chemokines</t>
+          <t xml:space="preserve">TNF receptor-like</t>
         </is>
       </c>
       <c r="E14" s="65">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -521,19 +521,19 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C15" s="65">
-        <v>47286</v>
+        <v>54117</v>
       </c>
       <c t="inlineStr" r="D15">
         <is>
-          <t xml:space="preserve">Short-chain cytokines</t>
+          <t xml:space="preserve">Interleukin 8-like chemokines</t>
         </is>
       </c>
       <c r="E15" s="65">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -544,19 +544,19 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C16" s="65">
-        <v>52201</v>
+        <v>57586</v>
       </c>
       <c t="inlineStr" r="D16">
         <is>
-          <t xml:space="preserve">Toll/Interleukin receptor TIR domain</t>
+          <t xml:space="preserve">TNF receptor-like</t>
         </is>
       </c>
       <c r="E16" s="65">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -567,15 +567,15 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C17" s="65">
-        <v>49879</v>
+        <v>54118</v>
       </c>
       <c t="inlineStr" r="D17">
         <is>
-          <t xml:space="preserve">SMAD/FHA domain</t>
+          <t xml:space="preserve">Interleukin 8-like chemokines</t>
         </is>
       </c>
       <c r="E17" s="65">
@@ -590,15 +590,15 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C18" s="65">
-        <v>47655</v>
+        <v>47286</v>
       </c>
       <c t="inlineStr" r="D18">
         <is>
-          <t xml:space="preserve">STAT</t>
+          <t xml:space="preserve">Short-chain cytokines</t>
         </is>
       </c>
       <c r="E18" s="65">
@@ -613,19 +613,19 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C19" s="65">
-        <v>48092</v>
+        <v>47305</v>
       </c>
       <c t="inlineStr" r="D19">
         <is>
-          <t xml:space="preserve">Transcription factor STAT-4 N-domain</t>
+          <t xml:space="preserve">Interferons/interleukin-10 (IL-10)</t>
         </is>
       </c>
       <c r="E19" s="65">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -636,15 +636,15 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C20" s="65">
-        <v>46877</v>
+        <v>47655</v>
       </c>
       <c t="inlineStr" r="D20">
         <is>
-          <t xml:space="preserve">Interferon regulatory factor</t>
+          <t xml:space="preserve">STAT</t>
         </is>
       </c>
       <c r="E20" s="65">
@@ -659,15 +659,15 @@
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C21" s="65">
-        <v>47305</v>
+        <v>48092</v>
       </c>
       <c t="inlineStr" r="D21">
         <is>
-          <t xml:space="preserve">Interferons/interleukin-10 (IL-10)</t>
+          <t xml:space="preserve">Transcription factor STAT-4 N-domain</t>
         </is>
       </c>
       <c r="E21" s="65">
@@ -686,15 +686,15 @@
         </is>
       </c>
       <c r="C22" s="65">
-        <v>47656</v>
+        <v>111188</v>
       </c>
       <c t="inlineStr" r="D22">
         <is>
-          <t xml:space="preserve">STAT</t>
+          <t xml:space="preserve">Inositol polyphosphate kinase (IPK)</t>
         </is>
       </c>
       <c r="E22" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -705,19 +705,19 @@
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C23" s="65">
-        <v>49842</v>
+        <v>47656</v>
       </c>
       <c t="inlineStr" r="D23">
         <is>
-          <t xml:space="preserve">TNF-like</t>
+          <t xml:space="preserve">STAT</t>
         </is>
       </c>
       <c r="E23" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="C24" s="65">
-        <v>111188</v>
+        <v>81317</v>
       </c>
       <c t="inlineStr" r="D24">
         <is>
-          <t xml:space="preserve">Inositol polyphosphate kinase (IPK)</t>
+          <t xml:space="preserve">STAT DNA-binding domain</t>
         </is>
       </c>
       <c r="E24" s="65">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -755,15 +755,15 @@
         </is>
       </c>
       <c r="C25" s="65">
-        <v>49843</v>
+        <v>48093</v>
       </c>
       <c t="inlineStr" r="D25">
         <is>
-          <t xml:space="preserve">TNF-like</t>
+          <t xml:space="preserve">Transcription factor STAT-4 N-domain</t>
         </is>
       </c>
       <c r="E25" s="65">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -778,15 +778,15 @@
         </is>
       </c>
       <c r="C26" s="65">
-        <v>46785</v>
+        <v>49842</v>
       </c>
       <c t="inlineStr" r="D26">
         <is>
-          <t xml:space="preserve">'Winged helix' DNA-binding domain</t>
+          <t xml:space="preserve">TNF-like</t>
         </is>
       </c>
       <c r="E26" s="65">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -801,15 +801,15 @@
         </is>
       </c>
       <c r="C27" s="65">
-        <v>48727</v>
+        <v>101630</v>
       </c>
       <c t="inlineStr" r="D27">
         <is>
-          <t xml:space="preserve">V set domains (antibody variable domain-like)</t>
+          <t xml:space="preserve">Interferon regulatory factor 3 (IRF3), transactivation domain</t>
         </is>
       </c>
       <c r="E27" s="65">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -820,19 +820,19 @@
       </c>
       <c t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C28" s="65">
-        <v>57959</v>
+        <v>49843</v>
       </c>
       <c t="inlineStr" r="D28">
         <is>
-          <t xml:space="preserve">Leucine zipper domain</t>
+          <t xml:space="preserve">TNF-like</t>
         </is>
       </c>
       <c r="E28" s="65">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -847,15 +847,15 @@
         </is>
       </c>
       <c r="C29" s="65">
-        <v>57960</v>
+        <v>46859</v>
       </c>
       <c t="inlineStr" r="D29">
         <is>
-          <t xml:space="preserve">Leucine zipper domain</t>
+          <t xml:space="preserve">ets domain</t>
         </is>
       </c>
       <c r="E29" s="65">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -866,19 +866,19 @@
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C30" s="65">
-        <v>57890</v>
+        <v>46785</v>
       </c>
       <c t="inlineStr" r="D30">
         <is>
-          <t xml:space="preserve">Protein kinase cysteine-rich domain (cys2, phorbol-binding domain)</t>
+          <t xml:space="preserve">'Winged helix' DNA-binding domain</t>
         </is>
       </c>
       <c r="E30" s="65">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -889,15 +889,15 @@
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C31" s="65">
-        <v>55551</v>
+        <v>52129</v>
       </c>
       <c t="inlineStr" r="D31">
         <is>
-          <t xml:space="preserve">SH2 domain</t>
+          <t xml:space="preserve">Caspase-like</t>
         </is>
       </c>
       <c r="E31" s="65">
@@ -916,11 +916,11 @@
         </is>
       </c>
       <c r="C32" s="65">
-        <v>52129</v>
+        <v>47986</v>
       </c>
       <c t="inlineStr" r="D32">
         <is>
-          <t xml:space="preserve">Caspase-like</t>
+          <t xml:space="preserve">DEATH domain</t>
         </is>
       </c>
       <c r="E32" s="65">
@@ -939,11 +939,11 @@
         </is>
       </c>
       <c r="C33" s="65">
-        <v>47986</v>
+        <v>57959</v>
       </c>
       <c t="inlineStr" r="D33">
         <is>
-          <t xml:space="preserve">DEATH domain</t>
+          <t xml:space="preserve">Leucine zipper domain</t>
         </is>
       </c>
       <c r="E33" s="65">
@@ -958,15 +958,15 @@
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C34" s="65">
-        <v>56104</v>
+        <v>55857</v>
       </c>
       <c t="inlineStr" r="D34">
         <is>
-          <t xml:space="preserve">SAICAR synthase-like</t>
+          <t xml:space="preserve">Cytochrome b5</t>
         </is>
       </c>
       <c r="E34" s="65">
@@ -985,15 +985,15 @@
         </is>
       </c>
       <c r="C35" s="65">
-        <v>49266</v>
+        <v>57960</v>
       </c>
       <c t="inlineStr" r="D35">
         <is>
-          <t xml:space="preserve">Fibronectin type III</t>
+          <t xml:space="preserve">Leucine zipper domain</t>
         </is>
       </c>
       <c r="E35" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="E36" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1031,15 +1031,15 @@
         </is>
       </c>
       <c r="C37" s="65">
-        <v>55856</v>
+        <v>56104</v>
       </c>
       <c t="inlineStr" r="D37">
         <is>
-          <t xml:space="preserve">Cytochrome b5-like heme/steroid binding domain</t>
+          <t xml:space="preserve">SAICAR synthase-like</t>
         </is>
       </c>
       <c r="E37" s="65">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1050,19 +1050,19 @@
       </c>
       <c t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C38" s="65">
-        <v>57184</v>
+        <v>49142</v>
       </c>
       <c t="inlineStr" r="D38">
         <is>
-          <t xml:space="preserve">Growth factor receptor domain</t>
+          <t xml:space="preserve">C2 set domains</t>
         </is>
       </c>
       <c r="E38" s="65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1073,19 +1073,19 @@
       </c>
       <c t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C39" s="65">
-        <v>56112</v>
+        <v>49266</v>
       </c>
       <c t="inlineStr" r="D39">
         <is>
-          <t xml:space="preserve">Protein kinase-like (PK-like)</t>
+          <t xml:space="preserve">Fibronectin type III</t>
         </is>
       </c>
       <c r="E39" s="65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1096,19 +1096,19 @@
       </c>
       <c t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C40" s="65">
-        <v>50044</v>
+        <v>48727</v>
       </c>
       <c t="inlineStr" r="D40">
         <is>
-          <t xml:space="preserve">SH3-domain</t>
+          <t xml:space="preserve">V set domains (antibody variable domain-like)</t>
         </is>
       </c>
       <c r="E40" s="65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1123,15 +1123,15 @@
         </is>
       </c>
       <c r="C41" s="65">
-        <v>52901</v>
+        <v>81279</v>
       </c>
       <c t="inlineStr" r="D41">
         <is>
-          <t xml:space="preserve">Glutathione peroxidase-like</t>
+          <t xml:space="preserve">NF-kappa-B/REL/DORSAL transcription factors, C-terminal domain</t>
         </is>
       </c>
       <c r="E41" s="65">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1146,15 +1146,15 @@
         </is>
       </c>
       <c r="C42" s="65">
-        <v>52805</v>
+        <v>57890</v>
       </c>
       <c t="inlineStr" r="D42">
         <is>
-          <t xml:space="preserve">Higher-molecular-weight phosphotyrosine protein phosphatases</t>
+          <t xml:space="preserve">Protein kinase cysteine-rich domain (cys2, phorbol-binding domain)</t>
         </is>
       </c>
       <c r="E42" s="65">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1165,19 +1165,19 @@
       </c>
       <c t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">SCOP family</t>
+          <t xml:space="preserve">SCOP superfamily</t>
         </is>
       </c>
       <c r="C43" s="65">
-        <v>47267</v>
+        <v>55856</v>
       </c>
       <c t="inlineStr" r="D43">
         <is>
-          <t xml:space="preserve">Long-chain cytokines</t>
+          <t xml:space="preserve">Cytochrome b5-like heme/steroid binding domain</t>
         </is>
       </c>
       <c r="E43" s="65">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1192,15 +1192,15 @@
         </is>
       </c>
       <c r="C44" s="65">
-        <v>49159</v>
+        <v>52901</v>
       </c>
       <c t="inlineStr" r="D44">
         <is>
-          <t xml:space="preserve">I set domains</t>
+          <t xml:space="preserve">Glutathione peroxidase-like</t>
         </is>
       </c>
       <c r="E44" s="65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1211,19 +1211,19 @@
       </c>
       <c t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">SCOP superfamily</t>
+          <t xml:space="preserve">SCOP family</t>
         </is>
       </c>
       <c r="C45" s="65">
-        <v>90229</v>
+        <v>88854</v>
       </c>
       <c t="inlineStr" r="D45">
         <is>
-          <t xml:space="preserve">CCCH zinc finger</t>
+          <t xml:space="preserve">Protein kinases, catalytic subunit</t>
         </is>
       </c>
       <c r="E45" s="65">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1238,15 +1238,15 @@
         </is>
       </c>
       <c r="C46" s="65">
-        <v>50729</v>
+        <v>49879</v>
       </c>
       <c t="inlineStr" r="D46">
         <is>
-          <t xml:space="preserve">PH domain-like</t>
+          <t xml:space="preserve">SMAD/FHA domain</t>
         </is>
       </c>
       <c r="E46" s="65">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1261,14 +1261,244 @@
         </is>
       </c>
       <c r="C47" s="65">
-        <v>56437</v>
+        <v>52130</v>
       </c>
       <c t="inlineStr" r="D47">
         <is>
-          <t xml:space="preserve">C-type lectin domain</t>
+          <t xml:space="preserve">Caspase catalytic domain</t>
         </is>
       </c>
       <c r="E47" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c t="inlineStr" r="A48">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">SCOP family</t>
+        </is>
+      </c>
+      <c r="C48" s="65">
+        <v>47267</v>
+      </c>
+      <c t="inlineStr" r="D48">
+        <is>
+          <t xml:space="preserve">Long-chain cytokines</t>
+        </is>
+      </c>
+      <c r="E48" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">SCOP family</t>
+        </is>
+      </c>
+      <c r="C49" s="65">
+        <v>50730</v>
+      </c>
+      <c t="inlineStr" r="D49">
+        <is>
+          <t xml:space="preserve">Pleckstrin-homology domain (PH domain)</t>
+        </is>
+      </c>
+      <c r="E49" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">SCOP family</t>
+        </is>
+      </c>
+      <c r="C50" s="65">
+        <v>50045</v>
+      </c>
+      <c t="inlineStr" r="D50">
+        <is>
+          <t xml:space="preserve">SH3-domain</t>
+        </is>
+      </c>
+      <c r="E50" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">SCOP superfamily</t>
+        </is>
+      </c>
+      <c r="C51" s="65">
+        <v>57184</v>
+      </c>
+      <c t="inlineStr" r="D51">
+        <is>
+          <t xml:space="preserve">Growth factor receptor domain</t>
+        </is>
+      </c>
+      <c r="E51" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">SCOP superfamily</t>
+        </is>
+      </c>
+      <c r="C52" s="65">
+        <v>56112</v>
+      </c>
+      <c t="inlineStr" r="D52">
+        <is>
+          <t xml:space="preserve">Protein kinase-like (PK-like)</t>
+        </is>
+      </c>
+      <c r="E52" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">SCOP superfamily</t>
+        </is>
+      </c>
+      <c r="C53" s="65">
+        <v>50044</v>
+      </c>
+      <c t="inlineStr" r="D53">
+        <is>
+          <t xml:space="preserve">SH3-domain</t>
+        </is>
+      </c>
+      <c r="E53" s="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">SCOP family</t>
+        </is>
+      </c>
+      <c r="C54" s="65">
+        <v>49159</v>
+      </c>
+      <c t="inlineStr" r="D54">
+        <is>
+          <t xml:space="preserve">I set domains</t>
+        </is>
+      </c>
+      <c r="E54" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">SCOP superfamily</t>
+        </is>
+      </c>
+      <c r="C55" s="65">
+        <v>50729</v>
+      </c>
+      <c t="inlineStr" r="D55">
+        <is>
+          <t xml:space="preserve">PH domain-like</t>
+        </is>
+      </c>
+      <c r="E55" s="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">SCOP family</t>
+        </is>
+      </c>
+      <c r="C56" s="65">
+        <v>90230</v>
+      </c>
+      <c t="inlineStr" r="D56">
+        <is>
+          <t xml:space="preserve">CCCH zinc finger</t>
+        </is>
+      </c>
+      <c r="E56" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">EFO:0000540</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">SCOP superfamily</t>
+        </is>
+      </c>
+      <c r="C57" s="65">
+        <v>90229</v>
+      </c>
+      <c t="inlineStr" r="D57">
+        <is>
+          <t xml:space="preserve">CCCH zinc finger</t>
+        </is>
+      </c>
+      <c r="E57" s="65">
         <v>3</v>
       </c>
     </row>
